--- a/src/Input_Files/empire_names/italia_empires.xlsx
+++ b/src/Input_Files/empire_names/italia_empires.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\italy_export_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D43ACB8-4DF1-45BC-8CC3-72359955C297}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC70B44-9906-4A60-8812-B7E681D77189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="6420" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="empires" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>RGB</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>feudal_government</t>
+  </si>
+  <si>
+    <t>capital_county</t>
+  </si>
+  <si>
+    <t>title_succession_laws</t>
   </si>
 </sst>
 </file>
@@ -106,7 +112,68 @@
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -440,22 +507,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.1796875" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,13 +533,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -482,11 +555,18 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
